--- a/data/trans_dic/P28A_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28A_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha realizado menos ejercicio respecto al último mes</t>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,1%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>67,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>27,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,35; 73,22</t>
+          <t>54,59; 86,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,56; 22,71</t>
+          <t>4,27; 27,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,14; 52,94</t>
+          <t>19,67; 70,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 57,43</t>
+          <t>15,46; 74,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,92; 71,75</t>
+          <t>50,86; 76,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 42,95</t>
+          <t>18,67; 44,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,21; 38,61</t>
+          <t>18,65; 43,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,38; 58,96</t>
+          <t>6,65; 29,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,76; 69,86</t>
+          <t>57,24; 77,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 30,44</t>
+          <t>12,74; 31,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,95; 40,9</t>
+          <t>23,6; 52,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 48,62</t>
+          <t>13,52; 49,71</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>27,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,99%</t>
+          <t>53,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>22,36%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,24; 60,64</t>
+          <t>52,05; 69,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,1; 29,21</t>
+          <t>19,75; 35,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,34; 32,3</t>
+          <t>14,78; 28,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 32,34</t>
+          <t>15,93; 37,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,96; 60,29</t>
+          <t>46,66; 61,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,09; 34,71</t>
+          <t>21,6; 34,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,45; 36,51</t>
+          <t>21,63; 34,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,6; 27,16</t>
+          <t>15,79; 27,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,71; 59,29</t>
+          <t>50,84; 62,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,26</t>
+          <t>22,74; 32,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,27</t>
+          <t>19,79; 29,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,85; 28,2</t>
+          <t>17,36; 28,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>59,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 65,12</t>
+          <t>47,6; 65,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,99; 30,78</t>
+          <t>15,66; 30,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 33,79</t>
+          <t>17,49; 32,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,96; 24,7</t>
+          <t>13,23; 27,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,1; 66,31</t>
+          <t>50,79; 66,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,65; 32,33</t>
+          <t>17,69; 30,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,85; 41,4</t>
+          <t>22,52; 37,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 27,77</t>
+          <t>15,37; 28,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,48; 63,91</t>
+          <t>52,46; 63,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 29,54</t>
+          <t>17,89; 27,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,73; 35,78</t>
+          <t>21,99; 32,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 24,67</t>
+          <t>16,26; 25,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,34; 61,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 25,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 31,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,41; 29,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,17; 61,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,91; 32,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,34; 36,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 31,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,38; 60,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 28,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 32,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 28,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60,25%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23,31%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57,37%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,56%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,51%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>58,71%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>26,87%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54,57; 66,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18,5; 28,49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20,07; 33,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 34,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>52,32; 62,32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21,87; 30,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,2; 33,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 25,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>55,12; 62,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 28,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,51; 30,93</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 28,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha realizado menos ejercicio respecto al último mes (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>72589</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17183</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42911</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44883</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>76881</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42464</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34889</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19518</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>149470</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>59647</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>77800</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64401</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>56420; 89038</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5497; 35943</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20745; 74274</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17644; 85175</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59912; 90435</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26594; 63407</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21537; 50595</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8134; 36518</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>126583; 171415</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34580; 85668</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>52151; 116825</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31981; 117578</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>220026</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>117775</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>79077</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>94013</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>208881</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>129453</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>104237</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>79187</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>428907</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>247228</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>183314</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>173200</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>190491; 253254</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84824; 150351</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>55599; 105791</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>63648; 149860</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>182289; 240322</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100332; 162078</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>82399; 131931</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59233; 104492</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>384661; 471493</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>203328; 291987</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>149838; 222945</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>134475; 224510</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>162407</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>72762</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69198</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>53118</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>212234</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>100775</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>101054</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70472</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>374641</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>173537</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>170253</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>123590</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>136091; 187072</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52115; 100566</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49380; 90849</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36427; 74965</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>182660; 239401</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>75800; 129658</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77607; 127694</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50320; 93920</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>338653; 411953</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>136191; 211106</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>137901; 205097</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>98024; 153387</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>411.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>455023</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>207720</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>191186</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>192014</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>497997</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>272692</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>240180</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>169177</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>953019</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>480412</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>431366</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>361191</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>412134; 502319</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>164868; 253934</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>153381; 253336</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>142487; 268480</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>454171; 540952</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>226407; 318767</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>203511; 280583</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>135500; 207701</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>894854; 1013095</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>422872; 549237</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>377345; 496496</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>302353; 455422</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>